--- a/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1640,9 +1640,15 @@
       <c r="L7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1672,11 +1678,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1696,9 +1702,15 @@
       <c r="L8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="M8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
@@ -1732,7 +1744,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>23</v>
@@ -1752,9 +1764,15 @@
       <c r="L9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="M9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
@@ -1788,7 +1806,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1808,9 +1826,15 @@
       <c r="L10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
@@ -1840,11 +1864,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1853,20 +1877,26 @@
         <v>20</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="M11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
@@ -1900,7 +1930,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1920,9 +1950,15 @@
       <c r="L12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
+      <c r="M12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
@@ -1956,7 +1992,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -1976,9 +2012,15 @@
       <c r="L13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="M13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
@@ -2008,11 +2050,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>20</v>
@@ -2032,9 +2074,15 @@
       <c r="L14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="M14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
@@ -2068,7 +2116,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2088,9 +2136,15 @@
       <c r="L15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="M15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2133,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>20</v>
@@ -2144,9 +2198,15 @@
       <c r="L16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
+      <c r="M16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
@@ -2176,11 +2236,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2200,9 +2260,15 @@
       <c r="L17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="M17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
@@ -2236,7 +2302,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2256,9 +2322,15 @@
       <c r="L18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
@@ -2288,11 +2360,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>23</v>
@@ -2312,9 +2384,15 @@
       <c r="L19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
+      <c r="M19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
@@ -2348,7 +2426,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2368,9 +2446,15 @@
       <c r="L20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
@@ -2400,11 +2484,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2424,9 +2508,15 @@
       <c r="L21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
+      <c r="M21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
@@ -2460,7 +2550,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2480,9 +2570,15 @@
       <c r="L22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
@@ -2512,11 +2608,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2536,9 +2632,15 @@
       <c r="L23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="M23" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
@@ -2568,11 +2670,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>23</v>
@@ -2592,9 +2694,15 @@
       <c r="L24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
+      <c r="M24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
@@ -2628,7 +2736,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2648,9 +2756,15 @@
       <c r="L25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="M25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
@@ -2684,7 +2798,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2704,9 +2818,15 @@
       <c r="L26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="M26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
@@ -2736,11 +2856,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2760,9 +2880,15 @@
       <c r="L27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="M27" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
@@ -2796,7 +2922,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2816,9 +2942,15 @@
       <c r="L28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="M28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
@@ -2848,11 +2980,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>23</v>
@@ -2872,9 +3004,15 @@
       <c r="L29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
+      <c r="M29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
@@ -2904,11 +3042,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -2928,9 +3066,15 @@
       <c r="L30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="M30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
@@ -2964,7 +3108,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2984,9 +3128,15 @@
       <c r="L31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="M31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
@@ -3020,7 +3170,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3040,9 +3190,15 @@
       <c r="L32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
@@ -3072,11 +3228,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3096,9 +3252,15 @@
       <c r="L33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
+      <c r="M33" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
@@ -3132,7 +3294,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3152,9 +3314,15 @@
       <c r="L34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="M34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
@@ -3188,7 +3356,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3208,9 +3376,15 @@
       <c r="L35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
@@ -3244,7 +3418,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3264,9 +3438,15 @@
       <c r="L36" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="M36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
@@ -3300,7 +3480,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3320,9 +3500,15 @@
       <c r="L37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
+      <c r="M37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
@@ -3352,11 +3538,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3376,9 +3562,15 @@
       <c r="L38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
+      <c r="M38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
@@ -3408,11 +3600,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>23</v>
@@ -3432,9 +3624,15 @@
       <c r="L39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
+      <c r="M39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
@@ -3468,7 +3666,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3488,9 +3686,15 @@
       <c r="L40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
+      <c r="M40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
@@ -3524,7 +3728,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3544,9 +3748,15 @@
       <c r="L41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
+      <c r="M41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
@@ -3576,11 +3786,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3600,9 +3810,15 @@
       <c r="L42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
+      <c r="M42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
@@ -3632,11 +3848,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3656,9 +3872,15 @@
       <c r="L43" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="M43" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
@@ -3692,7 +3914,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3712,9 +3934,15 @@
       <c r="L44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
+      <c r="M44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
@@ -3748,7 +3976,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3768,9 +3996,15 @@
       <c r="L45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
+      <c r="M45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
@@ -3800,11 +4034,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3824,9 +4058,15 @@
       <c r="L46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="M46" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
@@ -3860,7 +4100,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3880,9 +4120,15 @@
       <c r="L47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="M47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
@@ -3916,7 +4162,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -3936,9 +4182,15 @@
       <c r="L48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
+      <c r="M48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
@@ -3972,7 +4224,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -3992,9 +4244,15 @@
       <c r="L49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
+      <c r="M49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
@@ -4028,7 +4286,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4048,9 +4306,15 @@
       <c r="L50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="M50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
@@ -4084,7 +4348,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4104,9 +4368,15 @@
       <c r="L51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
+      <c r="M51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
@@ -4136,11 +4406,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4160,9 +4430,15 @@
       <c r="L52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
+      <c r="M52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
@@ -4196,7 +4472,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4216,9 +4492,15 @@
       <c r="L53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
@@ -4248,11 +4530,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4272,9 +4554,15 @@
       <c r="L54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="M54" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
@@ -4304,11 +4592,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4328,9 +4616,15 @@
       <c r="L55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="M55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
@@ -4364,7 +4658,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>23</v>
@@ -4384,9 +4678,15 @@
       <c r="L56" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
+      <c r="M56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
@@ -4420,7 +4720,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4440,9 +4740,15 @@
       <c r="L57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
+      <c r="M57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
@@ -4472,11 +4778,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4496,9 +4802,15 @@
       <c r="L58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
@@ -4532,7 +4844,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -4552,9 +4864,15 @@
       <c r="L59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
+      <c r="M59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
@@ -4584,11 +4902,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4608,9 +4926,15 @@
       <c r="L60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
+      <c r="M60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
@@ -4644,7 +4968,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>23</v>
@@ -4664,9 +4988,15 @@
       <c r="L61" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
+      <c r="M61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
@@ -4700,7 +5030,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4720,9 +5050,15 @@
       <c r="L62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="M62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
@@ -4752,11 +5088,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4776,9 +5112,15 @@
       <c r="L63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
+      <c r="M63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
@@ -4812,7 +5154,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -4832,9 +5174,15 @@
       <c r="L64" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
+      <c r="M64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
@@ -4868,7 +5216,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -4888,9 +5236,15 @@
       <c r="L65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
+      <c r="M65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P65" s="37"/>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
@@ -4920,11 +5274,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4944,9 +5298,15 @@
       <c r="L66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
+      <c r="M66" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P66" s="37"/>
       <c r="Q66" s="37"/>
       <c r="R66" s="37"/>
@@ -4976,11 +5336,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5000,9 +5360,15 @@
       <c r="L67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
+      <c r="M67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P67" s="37"/>
       <c r="Q67" s="37"/>
       <c r="R67" s="37"/>
@@ -5036,7 +5402,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5056,9 +5422,15 @@
       <c r="L68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
+      <c r="M68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P68" s="37"/>
       <c r="Q68" s="37"/>
       <c r="R68" s="37"/>
@@ -5088,11 +5460,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5112,9 +5484,15 @@
       <c r="L69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
+      <c r="M69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
       <c r="R69" s="37"/>
@@ -5144,11 +5522,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>23</v>
@@ -5168,9 +5546,15 @@
       <c r="L70" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
+      <c r="M70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P70" s="37"/>
       <c r="Q70" s="37"/>
       <c r="R70" s="37"/>
@@ -5200,11 +5584,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5224,9 +5608,15 @@
       <c r="L71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
+      <c r="M71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P71" s="37"/>
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
@@ -5256,11 +5646,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5280,9 +5670,15 @@
       <c r="L72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
+      <c r="M72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P72" s="37"/>
       <c r="Q72" s="37"/>
       <c r="R72" s="37"/>
@@ -5316,7 +5712,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5336,9 +5732,15 @@
       <c r="L73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
+      <c r="M73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P73" s="37"/>
       <c r="Q73" s="37"/>
       <c r="R73" s="37"/>
@@ -5368,11 +5770,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5392,9 +5794,15 @@
       <c r="L74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
+      <c r="M74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P74" s="37"/>
       <c r="Q74" s="37"/>
       <c r="R74" s="37"/>
@@ -5428,7 +5836,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>23</v>
@@ -5448,9 +5856,15 @@
       <c r="L75" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
+      <c r="M75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P75" s="37"/>
       <c r="Q75" s="37"/>
       <c r="R75" s="37"/>
@@ -5480,11 +5894,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -5504,9 +5918,15 @@
       <c r="L76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
+      <c r="M76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P76" s="37"/>
       <c r="Q76" s="37"/>
       <c r="R76" s="37"/>
@@ -5536,11 +5956,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -5560,9 +5980,15 @@
       <c r="L77" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
+      <c r="M77" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="P77" s="37"/>
       <c r="Q77" s="37"/>
       <c r="R77" s="37"/>
@@ -5596,7 +6022,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>23</v>
@@ -5616,9 +6042,15 @@
       <c r="L78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
+      <c r="M78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="P78" s="37"/>
       <c r="Q78" s="37"/>
       <c r="R78" s="37"/>

--- a/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M8q4hQBRao1v2hrU8d4Q+2LsnyZey/mVQo+xEtXPUVc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ekNVo2u4zC1/zRSaJFf5DCiCIeFD/mmwnJn7I1wT15U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Rupak Kumar</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1649,9 +1652,15 @@
       <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1682,7 +1691,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1711,9 +1720,15 @@
       <c r="O8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="P8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
@@ -1744,7 +1759,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>23</v>
@@ -1773,9 +1788,15 @@
       <c r="O9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="P9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
@@ -1806,7 +1827,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1835,9 +1856,15 @@
       <c r="O10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="P10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -1868,7 +1895,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1897,9 +1924,15 @@
       <c r="O11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="P11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -1926,7 +1959,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -1959,9 +1992,15 @@
       <c r="O12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="P12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
@@ -1992,7 +2031,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2021,9 +2060,15 @@
       <c r="O13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="P13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
@@ -2054,7 +2099,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>20</v>
@@ -2083,9 +2128,15 @@
       <c r="O14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="P14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
@@ -2116,7 +2167,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2145,9 +2196,15 @@
       <c r="O15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="P15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
@@ -2178,7 +2235,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2207,9 +2264,15 @@
       <c r="O16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="P16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
@@ -2236,11 +2299,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2269,9 +2332,15 @@
       <c r="O17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="P17" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -2302,7 +2371,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2331,9 +2400,15 @@
       <c r="O18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="P18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
@@ -2360,11 +2435,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>23</v>
@@ -2393,9 +2468,15 @@
       <c r="O19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="P19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
@@ -2422,11 +2503,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2455,9 +2536,15 @@
       <c r="O20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="P20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
@@ -2488,7 +2575,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>20</v>
@@ -2517,9 +2604,15 @@
       <c r="O21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="P21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
@@ -2546,11 +2639,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2579,9 +2672,15 @@
       <c r="O22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="P22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
@@ -2612,7 +2711,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2641,9 +2740,15 @@
       <c r="O23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="P23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
@@ -2670,11 +2775,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>23</v>
@@ -2703,9 +2808,15 @@
       <c r="O24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="P24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -2732,11 +2843,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2765,9 +2876,15 @@
       <c r="O25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="P25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
@@ -2798,7 +2915,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2827,9 +2944,15 @@
       <c r="O26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="P26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
@@ -2856,11 +2979,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2889,9 +3012,15 @@
       <c r="O27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="P27" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
@@ -2922,7 +3051,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2951,9 +3080,15 @@
       <c r="O28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="P28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -2980,7 +3115,7 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -3013,9 +3148,15 @@
       <c r="O29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
+      <c r="P29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -3042,11 +3183,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3075,9 +3216,15 @@
       <c r="O30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="P30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -3108,7 +3255,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3137,9 +3284,15 @@
       <c r="O31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
+      <c r="P31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3166,7 +3319,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -3199,9 +3352,15 @@
       <c r="O32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="P32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
@@ -3232,7 +3391,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3261,9 +3420,15 @@
       <c r="O33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="P33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
@@ -3290,11 +3455,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3323,9 +3488,15 @@
       <c r="O34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="P34" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
@@ -3356,7 +3527,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3385,9 +3556,15 @@
       <c r="O35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
+      <c r="P35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3418,7 +3595,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3447,9 +3624,15 @@
       <c r="O36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="P36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
@@ -3476,7 +3659,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3509,9 +3692,15 @@
       <c r="O37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="P37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
@@ -3538,11 +3727,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3571,9 +3760,15 @@
       <c r="O38" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="P38" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
@@ -3600,11 +3795,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>23</v>
@@ -3633,9 +3828,15 @@
       <c r="O39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
+      <c r="P39" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -3666,7 +3867,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3695,9 +3896,15 @@
       <c r="O40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="P40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
@@ -3724,11 +3931,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3757,9 +3964,15 @@
       <c r="O41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="P41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
@@ -3786,11 +3999,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3819,9 +4032,15 @@
       <c r="O42" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="P42" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -3848,11 +4067,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3881,9 +4100,15 @@
       <c r="O43" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="P43" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
@@ -3910,11 +4135,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3943,9 +4168,15 @@
       <c r="O44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="P44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
@@ -3972,11 +4203,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4005,9 +4236,15 @@
       <c r="O45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="P45" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -4038,7 +4275,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4067,9 +4304,15 @@
       <c r="O46" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="P46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
@@ -4096,11 +4339,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4129,9 +4372,15 @@
       <c r="O47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="P47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
@@ -4162,7 +4411,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4191,9 +4440,15 @@
       <c r="O48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="P48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
@@ -4224,7 +4479,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4253,9 +4508,15 @@
       <c r="O49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
+      <c r="P49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
@@ -4282,11 +4543,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4315,9 +4576,15 @@
       <c r="O50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="P50" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
@@ -4344,11 +4611,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4377,9 +4644,15 @@
       <c r="O51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
+      <c r="P51" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -4406,11 +4679,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4439,9 +4712,15 @@
       <c r="O52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="P52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -4468,11 +4747,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4501,9 +4780,15 @@
       <c r="O53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="P53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -4530,11 +4815,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4563,9 +4848,15 @@
       <c r="O54" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="P54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -4592,11 +4883,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4625,9 +4916,15 @@
       <c r="O55" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
+      <c r="P55" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -4658,7 +4955,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>23</v>
@@ -4687,9 +4984,15 @@
       <c r="O56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="P56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4720,7 +5023,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4749,9 +5052,15 @@
       <c r="O57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
+      <c r="P57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -4782,7 +5091,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4811,9 +5120,15 @@
       <c r="O58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="P58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -4844,7 +5159,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -4873,9 +5188,15 @@
       <c r="O59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
+      <c r="P59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -4906,7 +5227,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4935,9 +5256,15 @@
       <c r="O60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="P60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -4964,11 +5291,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>23</v>
@@ -4997,9 +5324,15 @@
       <c r="O61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
+      <c r="P61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
@@ -5026,11 +5359,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5059,9 +5392,15 @@
       <c r="O62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="P62" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -5088,11 +5427,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5121,9 +5460,15 @@
       <c r="O63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
+      <c r="P63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
@@ -5154,7 +5499,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -5183,9 +5528,15 @@
       <c r="O64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="P64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
@@ -5212,11 +5563,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5245,9 +5596,15 @@
       <c r="O65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
+      <c r="P65" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
@@ -5278,7 +5635,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5307,9 +5664,15 @@
       <c r="O66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
+      <c r="P66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
@@ -5336,11 +5699,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5369,9 +5732,15 @@
       <c r="O67" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
+      <c r="P67" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
@@ -5402,7 +5771,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5431,9 +5800,15 @@
       <c r="O68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
+      <c r="P68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
       <c r="U68" s="37"/>
@@ -5460,11 +5835,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5493,9 +5868,15 @@
       <c r="O69" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
+      <c r="P69" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
@@ -5526,7 +5907,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>23</v>
@@ -5555,9 +5936,15 @@
       <c r="O70" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
+      <c r="P70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
@@ -5584,11 +5971,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5617,9 +6004,15 @@
       <c r="O71" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
+      <c r="P71" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="37"/>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
@@ -5646,11 +6039,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5679,9 +6072,15 @@
       <c r="O72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
+      <c r="P72" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="37"/>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
@@ -5708,11 +6107,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5741,9 +6140,15 @@
       <c r="O73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
+      <c r="P73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
@@ -5774,7 +6179,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5803,9 +6208,15 @@
       <c r="O74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
+      <c r="P74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
@@ -5836,7 +6247,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>23</v>
@@ -5865,9 +6276,15 @@
       <c r="O75" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
+      <c r="P75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
       <c r="U75" s="37"/>
@@ -5894,11 +6311,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>20</v>
@@ -5927,9 +6344,15 @@
       <c r="O76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
+      <c r="P76" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
       <c r="U76" s="37"/>
@@ -5956,11 +6379,11 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -5989,9 +6412,15 @@
       <c r="O77" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
+      <c r="P77" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
@@ -6018,11 +6447,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>23</v>
@@ -6051,9 +6480,15 @@
       <c r="O78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
+      <c r="P78" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>164</v>
+      </c>
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
       <c r="U78" s="37"/>

--- a/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="165">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1661,7 +1661,9 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1691,7 +1693,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1729,7 +1731,9 @@
       <c r="R8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="37"/>
+      <c r="S8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
@@ -1759,7 +1763,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>23</v>
@@ -1797,7 +1801,9 @@
       <c r="R9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="37"/>
+      <c r="S9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
@@ -1827,7 +1833,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>20</v>
@@ -1865,7 +1871,9 @@
       <c r="R10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
@@ -1895,7 +1903,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1933,7 +1941,9 @@
       <c r="R11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="37"/>
+      <c r="S11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
@@ -1963,7 +1973,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2001,7 +2011,9 @@
       <c r="R12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="37"/>
+      <c r="S12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2069,7 +2081,9 @@
       <c r="R13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="37"/>
+      <c r="S13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
@@ -2095,7 +2109,7 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
@@ -2137,7 +2151,9 @@
       <c r="R14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
@@ -2167,7 +2183,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2205,7 +2221,9 @@
       <c r="R15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="37"/>
+      <c r="S15" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
@@ -2235,7 +2253,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2273,7 +2291,9 @@
       <c r="R16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="37"/>
+      <c r="S16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
@@ -2303,7 +2323,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2341,7 +2361,9 @@
       <c r="R17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="37"/>
+      <c r="S17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
@@ -2371,7 +2393,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2409,7 +2431,9 @@
       <c r="R18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
@@ -2439,7 +2463,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>23</v>
@@ -2477,7 +2501,9 @@
       <c r="R19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="37"/>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
@@ -2507,7 +2533,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2545,7 +2571,9 @@
       <c r="R20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
@@ -2571,7 +2599,7 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2613,7 +2641,9 @@
       <c r="R21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="37"/>
+      <c r="S21" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
@@ -2643,7 +2673,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2681,7 +2711,9 @@
       <c r="R22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="37"/>
+      <c r="S22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
@@ -2711,7 +2743,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2749,7 +2781,9 @@
       <c r="R23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="37"/>
+      <c r="S23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
@@ -2779,7 +2813,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>23</v>
@@ -2817,7 +2851,9 @@
       <c r="R24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="37"/>
+      <c r="S24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
@@ -2847,7 +2883,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>20</v>
@@ -2885,7 +2921,9 @@
       <c r="R25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="37"/>
+      <c r="S25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
@@ -2911,7 +2949,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2953,7 +2991,9 @@
       <c r="R26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="37"/>
+      <c r="S26" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
@@ -2983,7 +3023,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3021,7 +3061,9 @@
       <c r="R27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="37"/>
+      <c r="S27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
@@ -3051,7 +3093,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3089,7 +3131,9 @@
       <c r="R28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="37"/>
+      <c r="S28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
@@ -3119,7 +3163,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>23</v>
@@ -3157,7 +3201,9 @@
       <c r="R29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="37"/>
+      <c r="S29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
@@ -3187,7 +3233,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>20</v>
@@ -3225,7 +3271,9 @@
       <c r="R30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="37"/>
+      <c r="S30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
@@ -3251,7 +3299,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
@@ -3293,7 +3341,9 @@
       <c r="R31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37"/>
+      <c r="S31" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
@@ -3323,7 +3373,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>20</v>
@@ -3361,7 +3411,9 @@
       <c r="R32" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="37"/>
+      <c r="S32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
@@ -3387,7 +3439,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -3429,7 +3481,9 @@
       <c r="R33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="37"/>
+      <c r="S33" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
@@ -3455,7 +3509,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3497,7 +3551,9 @@
       <c r="R34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="37"/>
+      <c r="S34" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
@@ -3523,7 +3579,7 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
@@ -3565,7 +3621,9 @@
       <c r="R35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="37"/>
+      <c r="S35" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
@@ -3595,7 +3653,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3633,7 +3691,9 @@
       <c r="R36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="37"/>
+      <c r="S36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
@@ -3663,7 +3723,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3701,7 +3761,9 @@
       <c r="R37" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S37" s="37"/>
+      <c r="S37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
@@ -3731,7 +3793,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>20</v>
@@ -3769,7 +3831,9 @@
       <c r="R38" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="37"/>
+      <c r="S38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
@@ -3799,7 +3863,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>23</v>
@@ -3837,7 +3901,9 @@
       <c r="R39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="37"/>
+      <c r="S39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
@@ -3867,7 +3933,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3905,7 +3971,9 @@
       <c r="R40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="37"/>
+      <c r="S40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
@@ -3935,7 +4003,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3973,7 +4041,9 @@
       <c r="R41" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S41" s="37"/>
+      <c r="S41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
@@ -4003,7 +4073,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4041,7 +4111,9 @@
       <c r="R42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
+      <c r="S42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
@@ -4067,7 +4139,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -4109,7 +4181,9 @@
       <c r="R43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="37"/>
+      <c r="S43" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
@@ -4135,7 +4209,7 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
@@ -4177,7 +4251,9 @@
       <c r="R44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S44" s="37"/>
+      <c r="S44" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
@@ -4203,7 +4279,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -4245,7 +4321,9 @@
       <c r="R45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="37"/>
+      <c r="S45" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
@@ -4275,7 +4353,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4313,7 +4391,9 @@
       <c r="R46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="37"/>
+      <c r="S46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
@@ -4343,7 +4423,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4381,7 +4461,9 @@
       <c r="R47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="37"/>
+      <c r="S47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
@@ -4411,7 +4493,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4449,7 +4531,9 @@
       <c r="R48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="37"/>
+      <c r="S48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
@@ -4479,7 +4563,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4517,7 +4601,9 @@
       <c r="R49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="37"/>
+      <c r="S49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
@@ -4547,7 +4633,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4585,7 +4671,9 @@
       <c r="R50" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S50" s="37"/>
+      <c r="S50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
@@ -4611,7 +4699,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -4653,7 +4741,9 @@
       <c r="R51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="37"/>
+      <c r="S51" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
@@ -4683,7 +4773,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4721,7 +4811,9 @@
       <c r="R52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="37"/>
+      <c r="S52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
@@ -4751,7 +4843,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4789,7 +4881,9 @@
       <c r="R53" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S53" s="37"/>
+      <c r="S53" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
@@ -4819,7 +4913,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4857,7 +4951,9 @@
       <c r="R54" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S54" s="37"/>
+      <c r="S54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
@@ -4887,7 +4983,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4925,7 +5021,9 @@
       <c r="R55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="37"/>
+      <c r="S55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
@@ -4955,7 +5053,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>23</v>
@@ -4993,7 +5091,9 @@
       <c r="R56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="37"/>
+      <c r="S56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
@@ -5023,7 +5123,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5061,7 +5161,9 @@
       <c r="R57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="37"/>
+      <c r="S57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
@@ -5091,7 +5193,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5129,7 +5231,9 @@
       <c r="R58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="37"/>
+      <c r="S58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
@@ -5159,7 +5263,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>20</v>
@@ -5197,7 +5301,9 @@
       <c r="R59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="37"/>
+      <c r="S59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
@@ -5227,7 +5333,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5265,7 +5371,9 @@
       <c r="R60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="37"/>
+      <c r="S60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
@@ -5295,7 +5403,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>23</v>
@@ -5333,7 +5441,9 @@
       <c r="R61" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S61" s="37"/>
+      <c r="S61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
@@ -5363,7 +5473,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5401,7 +5511,9 @@
       <c r="R62" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S62" s="37"/>
+      <c r="S62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
@@ -5431,7 +5543,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5469,7 +5581,9 @@
       <c r="R63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="37"/>
+      <c r="S63" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
       <c r="V63" s="37"/>
@@ -5499,7 +5613,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>20</v>
@@ -5537,7 +5651,9 @@
       <c r="R64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="37"/>
+      <c r="S64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
       <c r="V64" s="37"/>
@@ -5563,7 +5679,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -5605,7 +5721,9 @@
       <c r="R65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="37"/>
+      <c r="S65" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
@@ -5635,7 +5753,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5673,7 +5791,9 @@
       <c r="R66" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="37"/>
+      <c r="S66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
@@ -5699,12 +5819,12 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F67" s="34">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F67" s="34">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
       </c>
@@ -5741,7 +5861,9 @@
       <c r="R67" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S67" s="37"/>
+      <c r="S67" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
@@ -5771,7 +5893,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5809,7 +5931,9 @@
       <c r="R68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="37"/>
+      <c r="S68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="37"/>
       <c r="U68" s="37"/>
       <c r="V68" s="37"/>
@@ -5839,7 +5963,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5877,7 +6001,9 @@
       <c r="R69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="37"/>
+      <c r="S69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
       <c r="V69" s="37"/>
@@ -5907,7 +6033,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>23</v>
@@ -5945,7 +6071,9 @@
       <c r="R70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="37"/>
+      <c r="S70" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
@@ -5975,7 +6103,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6013,7 +6141,9 @@
       <c r="R71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="37"/>
+      <c r="S71" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
@@ -6043,7 +6173,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6081,7 +6211,9 @@
       <c r="R72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="37"/>
+      <c r="S72" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
       <c r="V72" s="37"/>
@@ -6111,7 +6243,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6149,7 +6281,9 @@
       <c r="R73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="37"/>
+      <c r="S73" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
       <c r="V73" s="37"/>
@@ -6179,7 +6313,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6217,7 +6351,9 @@
       <c r="R74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="37"/>
+      <c r="S74" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
       <c r="V74" s="37"/>
@@ -6247,7 +6383,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>23</v>
@@ -6285,7 +6421,9 @@
       <c r="R75" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="37"/>
+      <c r="S75" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T75" s="37"/>
       <c r="U75" s="37"/>
       <c r="V75" s="37"/>
@@ -6311,7 +6449,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -6353,7 +6491,9 @@
       <c r="R76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="37"/>
+      <c r="S76" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="T76" s="37"/>
       <c r="U76" s="37"/>
       <c r="V76" s="37"/>
@@ -6383,7 +6523,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>20</v>
@@ -6421,7 +6561,9 @@
       <c r="R77" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="37"/>
+      <c r="S77" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
@@ -6451,7 +6593,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>23</v>
@@ -6489,7 +6631,9 @@
       <c r="R78" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="S78" s="37"/>
+      <c r="S78" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="T78" s="37"/>
       <c r="U78" s="37"/>
       <c r="V78" s="37"/>
